--- a/Data/g1.1.xlsx
+++ b/Data/g1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F66B3A90-32EA-4C45-9BC7-26BC9A809A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85DF003-484A-428D-BC99-2AEF212CF1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{30A5B141-14BD-4368-8B32-53E30E5A142D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>UF</t>
   </si>
@@ -36,18 +36,12 @@
     <t>Variação (%) 2021/2010</t>
   </si>
   <si>
-    <t>RG</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
     <t>TO</t>
   </si>
   <si>
-    <t>RO</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
@@ -73,19 +67,34 @@
   </si>
   <si>
     <t>BR</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>RS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,20 +114,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{17A9561E-4528-48AF-8A1F-6065A12A5375}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,157 +435,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528011B0-897E-4368-AA15-47A9FE416048}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>9.2790674740127663</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>9.2790674740127663</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2">
+        <v>42.168950731425042</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>42.168950731425042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>9.1524223648049947</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>41.355134376299304</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>8.4168277337088906</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>39.28686846967156</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>9.1524223648049947</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5">
+        <v>6.8077944841820539</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
-        <v>41.355134376299304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E5">
+        <v>25.862085058540796</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>6.7410793913268927</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>25.386790288642661</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>6.3175104172521737</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>8.4168277337088906</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>39.28686846967156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6.8077944841820539</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>25.862085058540796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6.7410793913268927</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
-        <v>25.386790288642661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E7">
+        <v>24.908139483265373</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
-        <v>6.3175104172521737</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8">
+        <v>4.3037691078672458</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>2.792569218330911</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2">
-        <v>24.908139483265373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B9">
+        <v>4.3292631696036965</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>9.7070058551977212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
-        <v>4.3037691078672458</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B10">
+        <v>4.7626043796913988</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2">
-        <v>2.792569218330911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4.3292631696036965</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
-        <v>9.7070058551977212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4.7626043796913988</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="E10">
         <v>8.262960866752536</v>
       </c>
     </row>

--- a/Data/g1.1.xlsx
+++ b/Data/g1.1.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Roraima</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Roraima</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -492,7 +492,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mato Grosso</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -516,7 +516,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tocantins</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -551,7 +551,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Piauí</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -564,7 +564,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Acre</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mato Grosso do Sul</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Paraíba</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maranhão</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -612,7 +612,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -623,7 +623,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -636,7 +636,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -645,7 +645,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -656,7 +656,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -665,7 +665,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E10" t="n">

--- a/Data/g1.1.xlsx
+++ b/Data/g1.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Variação (%) 2022</t>
+          <t>Valor</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,17 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>UF</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Variação (%) 2022/2010</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rank</t>
+          <t>Categoria</t>
         </is>
       </c>
     </row>
@@ -479,14 +469,8 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>57.303631404687</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>Variação (%) 2022</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -503,14 +487,8 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>56.93075937581798</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>Variação (%) 2022</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -527,14 +505,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TO</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>47.69781593734575</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>Variação (%) 2022</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -551,14 +523,8 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PI</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>32.6068937425523</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>Variação (%) 2022</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -575,14 +541,8 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>31.84788151928765</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>Variação (%) 2022</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -599,14 +559,8 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>29.69759694720014</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>Variação (%) 2022</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -623,14 +577,8 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>4.078908858016646</v>
-      </c>
-      <c r="F8" t="n">
-        <v>26</v>
+          <t>Variação (%) 2022</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -645,13 +593,9 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>11.52892348592597</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>Variação (%) 2022</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -665,13 +609,167 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Variação (%) 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>57.303631404687</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>56.93075937581798</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>47.69781593734575</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>32.6068937425523</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>31.84788151928765</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>29.69759694720014</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.078908858016646</v>
+      </c>
+      <c r="C17" t="n">
+        <v>26</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11.52892348592597</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>NE</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="B19" t="n">
         <v>13.60673175406315</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Variação (%) 2022/2010</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/g1.1.xlsx
+++ b/Data/g1.1.xlsx
@@ -458,54 +458,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.28257356816728</v>
+        <v>14.73257689442189</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Variação (%) 2022</t>
+          <t>Variação (%) 2023</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.38328592034125</v>
+        <v>13.44269577606423</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Variação (%) 2022</t>
+          <t>Variação (%) 2023</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.163532889959003</v>
+        <v>12.88001598426398</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Variação (%) 2022</t>
+          <t>Variação (%) 2023</t>
         </is>
       </c>
     </row>
@@ -516,50 +516,50 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.038578912774967</v>
+        <v>7.890383025089162</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Variação (%) 2022</t>
+          <t>Variação (%) 2023</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AC</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.979340654464274</v>
+        <v>5.652659822157795</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Variação (%) 2022</t>
+          <t>Variação (%) 2023</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.639044878530812</v>
+        <v>4.816953216278661</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Variação (%) 2022</t>
+          <t>Variação (%) 2023</t>
         </is>
       </c>
     </row>
@@ -570,14 +570,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.251393607016045</v>
+        <v>3.118144130554446</v>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Variação (%) 2022</t>
+          <t>Variação (%) 2023</t>
         </is>
       </c>
     </row>
@@ -588,12 +588,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.016694345902016</v>
+        <v>3.241657824791806</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Variação (%) 2022</t>
+          <t>Variação (%) 2023</t>
         </is>
       </c>
     </row>
@@ -604,48 +604,48 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.554673531071183</v>
+        <v>2.867008788862638</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Variação (%) 2022</t>
+          <t>Variação (%) 2023</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.303631404687</v>
+        <v>77.14346626765018</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.93075937581798</v>
+        <v>63.84407511155798</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
@@ -656,68 +656,68 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.69781593734575</v>
+        <v>59.35173933449352</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.6068937425523</v>
+        <v>49.57179111911111</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>AC</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31.84788151928765</v>
+        <v>42.69524774665621</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.69759694720014</v>
+        <v>36.70681689547283</v>
       </c>
       <c r="C16" t="n">
         <v>6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
@@ -728,14 +728,14 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.078908858016646</v>
+        <v>7.324239245718005</v>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.52892348592597</v>
+        <v>15.14430956101356</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.60673175406315</v>
+        <v>16.86384673819174</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Variação (%) 2022/2010</t>
+          <t>Variação (%) 2023/2010</t>
         </is>
       </c>
     </row>
